--- a/medicine/Psychotrope/Salon_de_thé_des_chutes_Twin/Salon_de_thé_des_chutes_Twin.xlsx
+++ b/medicine/Psychotrope/Salon_de_thé_des_chutes_Twin/Salon_de_thé_des_chutes_Twin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Salon_de_th%C3%A9_des_chutes_Twin</t>
+          <t>Salon_de_thé_des_chutes_Twin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Salon de thé des chutes Twin est un site historique national du Canada situé dans le Parc national de Yoho en Colombie-Britannique.
-C'est un chalet en rondins, construit suivant la tradition rustique à partir de 1908 à proximité des chutes Twin (anglais : Twin Falls)[1].
-Le bâtiment a été agrandi en 1923[2].
+C'est un chalet en rondins, construit suivant la tradition rustique à partir de 1908 à proximité des chutes Twin (anglais : Twin Falls).
+Le bâtiment a été agrandi en 1923.
 			Les chutes Twin en 1902.
 			Les chutes Twin en 2009.
 </t>
